--- a/ra_exploer/examples/jar test VHR+adhesion+ACIS.20211111.xlsx
+++ b/ra_exploer/examples/jar test VHR+adhesion+ACIS.20211111.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hp06316p\技術開發二處主管資料夾\缺智慧\Hobob\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965" firstSheet="1" activeTab="3"/>
   </bookViews>
@@ -17,9 +12,13 @@
     <sheet name="Sealant summary" sheetId="3" r:id="rId3"/>
     <sheet name="材料資料片 TR1 Δangle" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sealant summary'!$A$1:$J$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'材料資料片 TR1 Δangle'!$A$1:$J$61</definedName>
+  </definedNames>
+  <calcPr calcId="125725" iterate="1" iterateCount="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +56,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="161">
   <si>
     <t>TR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -437,10 +436,6 @@
   </si>
   <si>
     <t>191226 INL北廠 723K1M 貴司提供液晶的汚染性實驗結果報告[LC-O(ref)、LC-Y,Z-</t>
-  </si>
-  <si>
-    <t>191226 INL北廠 723K1M 貴司提供液晶的汚染性實驗結果報告[LC-O(ref)、LC-Y,Z-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>210226_ODF_INL北_723K1M_Test Cell實驗_PI-P電氣特性,HPLC追加_中文.1</t>
@@ -921,19 +916,59 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>210319_INX_TR1 (S-NP07)_No.22,23 PCT Peeling mode追記_SNP07, K1M, 7142T, 005, 109U, 205.1</t>
+  </si>
+  <si>
+    <t>200427_ODF_INL北_723K1M、7142T_新PI接著方式(中文)</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>200527_LC Polluiton Test (INX竹南)_1336, 19V33, 580, 1228, 1098, 005, 169, V386, K1M</t>
+  </si>
+  <si>
+    <r>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 1V, 0.6 Hz</t>
+    </r>
+  </si>
+  <si>
+    <t>200306
+200320</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -941,14 +976,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -961,7 +996,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1352,7 +1387,7 @@
     <xf numFmtId="10" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1784,21 +1819,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="12" bestFit="1" customWidth="1"/>
@@ -1813,7 +1848,7 @@
     <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="7" customFormat="1">
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
@@ -1886,7 +1921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="7" customFormat="1">
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1921,7 +1956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="7" customFormat="1">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +1991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="7" customFormat="1">
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1991,7 +2026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
@@ -2026,7 +2061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -2061,7 +2096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
@@ -2096,7 +2131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
@@ -2131,7 +2166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="14" customFormat="1">
       <c r="B10" s="15" t="s">
         <v>33</v>
       </c>
@@ -2166,7 +2201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="14" customFormat="1">
       <c r="B11" s="15" t="s">
         <v>33</v>
       </c>
@@ -2201,7 +2236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="14" customFormat="1">
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
@@ -2236,7 +2271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="14" customFormat="1">
       <c r="B13" s="15" t="s">
         <v>33</v>
       </c>
@@ -2271,7 +2306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="14" customFormat="1">
       <c r="B14" s="15" t="s">
         <v>39</v>
       </c>
@@ -2306,7 +2341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="14" customFormat="1">
       <c r="B15" s="15" t="s">
         <v>33</v>
       </c>
@@ -2341,7 +2376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="14" customFormat="1">
       <c r="B16" s="15" t="s">
         <v>40</v>
       </c>
@@ -2376,7 +2411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" s="14" customFormat="1">
       <c r="B17" s="15" t="s">
         <v>12</v>
       </c>
@@ -2411,7 +2446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" s="14" customFormat="1">
       <c r="B18" s="15" t="s">
         <v>40</v>
       </c>
@@ -2446,7 +2481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" s="14" customFormat="1">
       <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
@@ -2481,7 +2516,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" s="15" t="s">
         <v>33</v>
       </c>
@@ -2516,7 +2551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
@@ -2551,7 +2586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
@@ -2586,7 +2621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="B23" s="15" t="s">
         <v>33</v>
       </c>
@@ -2621,7 +2656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24" s="15" t="s">
         <v>33</v>
       </c>
@@ -2656,7 +2691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25" s="15" t="s">
         <v>33</v>
       </c>
@@ -2691,7 +2726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="B26" s="15" t="s">
         <v>40</v>
       </c>
@@ -2726,7 +2761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="B27" s="15" t="s">
         <v>40</v>
       </c>
@@ -2761,7 +2796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="B28" s="15" t="s">
         <v>40</v>
       </c>
@@ -2796,7 +2831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="B29" s="15" t="s">
         <v>40</v>
       </c>
@@ -2831,7 +2866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
@@ -2866,7 +2901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -2901,7 +2936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="B32" s="8" t="s">
         <v>33</v>
       </c>
@@ -2936,7 +2971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12">
       <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
@@ -2971,7 +3006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12">
       <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
@@ -3006,7 +3041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12">
       <c r="B35" s="10" t="s">
         <v>44</v>
       </c>
@@ -3041,7 +3076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12">
       <c r="B36" s="10" t="s">
         <v>44</v>
       </c>
@@ -3076,7 +3111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12">
       <c r="B37" s="10" t="s">
         <v>44</v>
       </c>
@@ -3111,7 +3146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12">
       <c r="B38" s="8" t="s">
         <v>45</v>
       </c>
@@ -3146,7 +3181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12">
       <c r="B39" s="8" t="s">
         <v>46</v>
       </c>
@@ -3181,7 +3216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12">
       <c r="B40" s="8" t="s">
         <v>45</v>
       </c>
@@ -3216,7 +3251,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12">
       <c r="B41" s="8" t="s">
         <v>45</v>
       </c>
@@ -3261,17 +3296,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
@@ -3285,7 +3320,7 @@
     <col min="10" max="10" width="91.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -3317,7 +3352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.5">
       <c r="B2" s="17" t="s">
         <v>55</v>
       </c>
@@ -3330,9 +3365,7 @@
       <c r="E2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>58</v>
-      </c>
+      <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="17">
         <v>0.8</v>
@@ -3341,10 +3374,10 @@
         <v>59</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5">
       <c r="B3" s="17" t="s">
         <v>55</v>
       </c>
@@ -3371,7 +3404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5">
       <c r="B4" s="17" t="s">
         <v>55</v>
       </c>
@@ -3398,7 +3431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5">
       <c r="B5" s="17" t="s">
         <v>55</v>
       </c>
@@ -3425,7 +3458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5">
       <c r="B6" s="24" t="s">
         <v>55</v>
       </c>
@@ -3452,7 +3485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5">
       <c r="B7" s="24" t="s">
         <v>55</v>
       </c>
@@ -3476,10 +3509,10 @@
         <v>41</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5">
       <c r="B8" s="24" t="s">
         <v>55</v>
       </c>
@@ -3506,7 +3539,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5">
       <c r="B9" s="24" t="s">
         <v>55</v>
       </c>
@@ -3533,7 +3566,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.5">
       <c r="B10" s="28" t="s">
         <v>55</v>
       </c>
@@ -3560,7 +3593,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5">
       <c r="B11" s="28" t="s">
         <v>55</v>
       </c>
@@ -3587,7 +3620,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5">
       <c r="B12" s="28" t="s">
         <v>55</v>
       </c>
@@ -3614,7 +3647,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5">
       <c r="B13" s="28" t="s">
         <v>55</v>
       </c>
@@ -3641,7 +3674,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5">
       <c r="B14" s="28" t="s">
         <v>55</v>
       </c>
@@ -3668,7 +3701,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.5">
       <c r="B15" s="28" t="s">
         <v>55</v>
       </c>
@@ -3702,17 +3735,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="12" bestFit="1" customWidth="1"/>
@@ -3723,11 +3754,11 @@
     <col min="7" max="7" width="18" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="91.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56.625" style="19" customWidth="1"/>
     <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="B1" s="20" t="s">
         <v>47</v>
       </c>
@@ -3756,7 +3787,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.5">
+      <c r="A2" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B2" s="33" t="s">
         <v>68</v>
       </c>
@@ -3785,7 +3819,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5">
+      <c r="A3" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B3" s="33" t="s">
         <v>68</v>
       </c>
@@ -3799,7 +3836,7 @@
         <v>37</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>71</v>
@@ -3811,10 +3848,13 @@
         <v>66</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5">
+      <c r="A4" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B4" s="33" t="s">
         <v>68</v>
       </c>
@@ -3843,7 +3883,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B5" s="33" t="s">
         <v>68</v>
       </c>
@@ -3872,7 +3915,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5">
+      <c r="A6" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B6" s="33" t="s">
         <v>68</v>
       </c>
@@ -3901,7 +3947,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5">
+      <c r="A7" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B7" s="33" t="s">
         <v>68</v>
       </c>
@@ -3927,10 +3976,10 @@
         <v>66</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5">
       <c r="B8" s="33" t="s">
         <v>68</v>
       </c>
@@ -3959,7 +4008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5">
       <c r="B9" s="33" t="s">
         <v>68</v>
       </c>
@@ -3988,7 +4037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.5">
       <c r="B10" s="33" t="s">
         <v>68</v>
       </c>
@@ -4017,7 +4066,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5">
       <c r="B11" s="33" t="s">
         <v>68</v>
       </c>
@@ -4046,7 +4095,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5">
       <c r="B12" s="33" t="s">
         <v>68</v>
       </c>
@@ -4075,7 +4124,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5">
       <c r="B13" s="33" t="s">
         <v>68</v>
       </c>
@@ -4104,7 +4153,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5">
+      <c r="A14" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B14" s="36" t="s">
         <v>68</v>
       </c>
@@ -4133,7 +4185,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.5">
       <c r="B15" s="36" t="s">
         <v>68</v>
       </c>
@@ -4162,7 +4214,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5">
+      <c r="A16" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B16" s="36" t="s">
         <v>68</v>
       </c>
@@ -4191,7 +4246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5">
       <c r="B17" s="36" t="s">
         <v>68</v>
       </c>
@@ -4220,7 +4275,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5">
+      <c r="A18" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B18" s="36" t="s">
         <v>68</v>
       </c>
@@ -4249,7 +4307,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5">
       <c r="B19" s="36" t="s">
         <v>68</v>
       </c>
@@ -4278,7 +4336,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5">
+      <c r="A20" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B20" s="40" t="s">
         <v>68</v>
       </c>
@@ -4304,10 +4365,13 @@
         <v>41</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5">
+      <c r="A21" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B21" s="40" t="s">
         <v>68</v>
       </c>
@@ -4336,7 +4400,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5">
       <c r="B22" s="40" t="s">
         <v>68</v>
       </c>
@@ -4365,7 +4429,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5">
       <c r="B23" s="40" t="s">
         <v>68</v>
       </c>
@@ -4394,7 +4458,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5">
       <c r="B24" s="45" t="s">
         <v>68</v>
       </c>
@@ -4423,7 +4487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.5">
       <c r="B25" s="45" t="s">
         <v>68</v>
       </c>
@@ -4452,7 +4516,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5">
+      <c r="A26" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B26" s="45" t="s">
         <v>68</v>
       </c>
@@ -4481,7 +4548,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5">
+      <c r="A27" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B27" s="45" t="s">
         <v>68</v>
       </c>
@@ -4510,7 +4580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5">
       <c r="B28" s="40" t="s">
         <v>68</v>
       </c>
@@ -4539,7 +4609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5">
       <c r="B29" s="40" t="s">
         <v>68</v>
       </c>
@@ -4568,7 +4638,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5">
+      <c r="A30" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B30" s="40" t="s">
         <v>68</v>
       </c>
@@ -4597,7 +4670,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5">
+      <c r="A31" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B31" s="40" t="s">
         <v>68</v>
       </c>
@@ -4626,7 +4702,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5">
       <c r="B32" s="45" t="s">
         <v>68</v>
       </c>
@@ -4655,7 +4731,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="16.5">
       <c r="B33" s="45" t="s">
         <v>68</v>
       </c>
@@ -4684,7 +4760,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16.5">
+      <c r="A34" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B34" s="45" t="s">
         <v>68</v>
       </c>
@@ -4710,10 +4789,13 @@
         <v>41</v>
       </c>
       <c r="J34" s="49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.5">
+      <c r="A35" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B35" s="45" t="s">
         <v>68</v>
       </c>
@@ -4742,7 +4824,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="16.5">
       <c r="B36" s="40" t="s">
         <v>68</v>
       </c>
@@ -4768,10 +4850,10 @@
         <v>41</v>
       </c>
       <c r="J36" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5">
       <c r="B37" s="40" t="s">
         <v>68</v>
       </c>
@@ -4797,10 +4879,13 @@
         <v>41</v>
       </c>
       <c r="J37" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16.5">
+      <c r="A38" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B38" s="40" t="s">
         <v>68</v>
       </c>
@@ -4826,10 +4911,13 @@
         <v>41</v>
       </c>
       <c r="J38" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16.5">
+      <c r="A39" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="B39" s="40" t="s">
         <v>68</v>
       </c>
@@ -4855,10 +4943,10 @@
         <v>41</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16.5">
       <c r="B40" s="17" t="s">
         <v>55</v>
       </c>
@@ -4885,7 +4973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16.5">
       <c r="B41" s="17" t="s">
         <v>55</v>
       </c>
@@ -4912,7 +5000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="16.5">
       <c r="B42" s="17" t="s">
         <v>55</v>
       </c>
@@ -4939,7 +5027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="16.5">
       <c r="B43" s="17" t="s">
         <v>55</v>
       </c>
@@ -4966,7 +5054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="16.5">
       <c r="B44" s="24" t="s">
         <v>55</v>
       </c>
@@ -4993,7 +5081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="16.5">
       <c r="B45" s="24" t="s">
         <v>55</v>
       </c>
@@ -5020,7 +5108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="16.5">
       <c r="B46" s="24" t="s">
         <v>55</v>
       </c>
@@ -5047,7 +5135,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="16.5">
       <c r="B47" s="24" t="s">
         <v>55</v>
       </c>
@@ -5074,7 +5162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="16.5">
       <c r="B48" s="28" t="s">
         <v>55</v>
       </c>
@@ -5101,7 +5189,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" ht="16.5">
       <c r="B49" s="28" t="s">
         <v>55</v>
       </c>
@@ -5128,7 +5216,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" ht="16.5">
       <c r="B50" s="28" t="s">
         <v>55</v>
       </c>
@@ -5155,7 +5243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" ht="16.5">
       <c r="B51" s="28" t="s">
         <v>55</v>
       </c>
@@ -5182,7 +5270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" ht="16.5">
       <c r="B52" s="28" t="s">
         <v>55</v>
       </c>
@@ -5209,7 +5297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" ht="16.5">
       <c r="B53" s="28" t="s">
         <v>55</v>
       </c>
@@ -5237,1715 +5325,1804 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J53"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.25" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.375" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="53" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="53"/>
+    <col min="1" max="1" width="9" style="53"/>
+    <col min="2" max="2" width="21.5" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.25" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.375" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:10">
+      <c r="B1" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="51" t="s">
+      <c r="I1" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="52" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="36">
+      <c r="A2" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="51" t="s">
+      <c r="C2" s="55">
+        <v>1336</v>
+      </c>
+      <c r="D2" s="56" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="E2" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56">
+        <v>0.13</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A3" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="55">
+        <v>1336</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56">
+        <v>0.04</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5">
+      <c r="A4" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56">
+        <v>0.13</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="56">
+        <v>200306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5">
+      <c r="A5" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="56">
+        <v>200320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="40.5" hidden="1">
+      <c r="B6" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="55">
+        <v>1336</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="55">
+      <c r="G6" s="56"/>
+      <c r="H6" s="56">
+        <v>0.18</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+    </row>
+    <row r="7" spans="1:10" ht="40.5" hidden="1">
+      <c r="B7" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="55">
         <v>1336</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56">
-        <v>0.13</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="D7" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="55">
+      <c r="E7" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56">
+        <v>0.08</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.5">
+      <c r="A8" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="58">
         <v>1336</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="57" t="s">
+      <c r="D8" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56">
-        <v>0.04</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="57" t="s">
+      <c r="F8" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="57"/>
+      <c r="H8" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="56">
+        <v>20201208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5">
+      <c r="A9" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56">
-        <v>0.13</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="56">
-        <v>200306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="56">
-        <v>200320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="55">
-        <v>1336</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56">
-        <v>0.18</v>
-      </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-    </row>
-    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="55">
-        <v>1336</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56">
-        <v>0.08</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="F9" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="56">
-        <v>20201208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="56" t="s">
-        <v>102</v>
-      </c>
+      <c r="G9" s="57"/>
       <c r="H9" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="56">
         <v>20201208</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:10" ht="39">
+      <c r="A10" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="56">
+        <v>200306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="39">
+      <c r="A11" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="56">
+        <v>200306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="39">
+      <c r="A12" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="58">
+        <v>580</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="56">
+        <v>200306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="39">
+      <c r="A13" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="58">
+        <v>580</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="56">
+        <v>200306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="39" hidden="1">
+      <c r="B14" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="56"/>
+    </row>
+    <row r="15" spans="1:10" ht="39" hidden="1">
+      <c r="B15" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="56"/>
+    </row>
+    <row r="16" spans="1:10" ht="39" hidden="1">
+      <c r="B16" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="56"/>
+    </row>
+    <row r="17" spans="2:10" ht="60.75" hidden="1" customHeight="1">
+      <c r="B17" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="58">
+      <c r="C17" s="58">
         <v>1336</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="57" t="s">
+      <c r="D17" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="56"/>
+    </row>
+    <row r="18" spans="2:10" ht="60.75" hidden="1" customHeight="1">
+      <c r="B18" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="56"/>
+      <c r="H18" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="56"/>
+    </row>
+    <row r="19" spans="2:10" ht="60.75" hidden="1" customHeight="1">
+      <c r="B19" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="56">
-        <v>200306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="F19" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="56"/>
+    </row>
+    <row r="20" spans="2:10" ht="60.75" hidden="1" customHeight="1">
+      <c r="B20" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="58">
+      <c r="C20" s="58">
         <v>1336</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="D20" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="60">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I20" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="J20" s="56"/>
+    </row>
+    <row r="21" spans="2:10" ht="60.75" hidden="1" customHeight="1">
+      <c r="B21" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="60">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="I21" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="56"/>
+    </row>
+    <row r="22" spans="2:10" ht="60.75" hidden="1" customHeight="1">
+      <c r="B22" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="60">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I22" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="56"/>
+    </row>
+    <row r="23" spans="2:10" ht="60.75" hidden="1" customHeight="1">
+      <c r="B23" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="60">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="56"/>
+    </row>
+    <row r="24" spans="2:10" ht="19.5">
+      <c r="B24" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="61">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="56">
+        <v>210111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="19.5">
+      <c r="B25" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="58">
+        <v>1336</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="61">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="I25" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="56">
+        <v>210111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="19.5">
+      <c r="B26" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="58">
+        <v>580</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="61">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I26" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="56">
+        <v>210111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="19.5">
+      <c r="B27" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="58">
+        <v>580</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="61">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I27" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="56">
+        <v>210111</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="19.5">
+      <c r="B28" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="58">
+        <v>580</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="61">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="I28" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="56">
+        <v>210111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="19.5">
+      <c r="B29" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="58">
+        <v>580</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="61">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I29" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="56">
+        <v>210111</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="19.5">
+      <c r="B30" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="58">
+        <v>580</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="61">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I30" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="56">
+        <v>210111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="19.5">
+      <c r="B31" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="58">
+        <v>580</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="61">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I31" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="56">
+        <v>210111</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="19.5">
+      <c r="B32" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="61">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I32" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="56">
+        <v>210507</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="20.25">
+      <c r="B33" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="61">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="I33" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="56">
+        <v>210507</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="19.5">
+      <c r="B34" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="61">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I34" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="56">
+        <v>210507</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="19.5">
+      <c r="B35" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="61">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I35" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="56">
+        <v>210507</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="20.25">
+      <c r="B36" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="61">
+        <v>0.85</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="56">
+        <v>210507</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="19.5">
+      <c r="B37" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="61">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I37" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" s="56">
+        <v>210507</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="19.5">
+      <c r="B38" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="61">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I38" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" s="56">
+        <v>210528</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="20.25">
+      <c r="B39" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39" s="61">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I39" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39" s="56">
+        <v>210528</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="19.5">
+      <c r="B40" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="61">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I40" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J40" s="56">
+        <v>210528</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="19.5">
+      <c r="B41" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" s="61">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I41" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="56">
+        <v>210528</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="20.25">
+      <c r="B42" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" s="61">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I42" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" s="56">
+        <v>210528</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="19.5">
+      <c r="B43" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="61">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I43" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J43" s="56">
+        <v>210528</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="19.5">
+      <c r="B44" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="61">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I44" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44" s="56">
+        <v>210622</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="20.25">
+      <c r="B45" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="61">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I45" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45" s="56">
+        <v>210622</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="19.5">
+      <c r="B46" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="61">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I46" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="56">
+        <v>210622</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="19.5">
+      <c r="B47" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="61">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I47" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J47" s="56">
+        <v>210622</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="20.25">
+      <c r="B48" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="61">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I48" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J48" s="56">
+        <v>210622</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="19.5">
+      <c r="B49" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="61">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="I49" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J49" s="56">
+        <v>210622</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="56">
-        <v>200306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="58">
-        <v>580</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="57" t="s">
+      <c r="D50" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="57"/>
+      <c r="H50" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" s="57">
+        <v>210416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="57"/>
+      <c r="H51" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J51" s="57">
+        <v>210416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="56">
-        <v>200306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="58">
-        <v>580</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="57" t="s">
+      <c r="D52" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="57"/>
+      <c r="H52" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J52" s="57">
+        <v>210416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="57"/>
+      <c r="H53" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="I53" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J53" s="57">
+        <v>210416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="57"/>
+      <c r="H54" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="I54" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J54" s="57">
+        <v>210416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57" t="s">
+      <c r="D55" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="57"/>
+      <c r="H55" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" s="57">
+        <v>210416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56" s="57"/>
+      <c r="H56" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="I56" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J56" s="57">
+        <v>210416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="56">
-        <v>200306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="56"/>
-    </row>
-    <row r="15" spans="1:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C15" s="56" t="s">
+      <c r="D57" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" s="57"/>
+      <c r="H57" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="56"/>
-    </row>
-    <row r="16" spans="1:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="57" t="s">
+      <c r="J57" s="57">
+        <v>210416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="56"/>
-    </row>
-    <row r="17" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="56"/>
-    </row>
-    <row r="18" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="56"/>
-    </row>
-    <row r="19" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="57" t="s">
+      <c r="D58" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58" s="57"/>
+      <c r="H58" s="62">
+        <v>0.93</v>
+      </c>
+      <c r="I58" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="J58" s="57">
+        <v>20201208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="56"/>
-    </row>
-    <row r="20" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="60">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="H20" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="56"/>
-    </row>
-    <row r="21" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="57" t="s">
+      <c r="D59" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" s="57"/>
+      <c r="H59" s="62">
+        <v>0.71</v>
+      </c>
+      <c r="I59" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="J59" s="57">
+        <v>20201208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="60">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="H21" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="60">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="H22" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="56"/>
-    </row>
-    <row r="23" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="60">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="H23" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="56"/>
-    </row>
-    <row r="24" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="61">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="H24" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="56">
-        <v>210111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="58">
-        <v>1336</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="61">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="56">
-        <v>210111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="58">
-        <v>580</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="61">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="H26" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="56">
-        <v>210111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="58">
-        <v>580</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="61">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="H27" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="56">
-        <v>210111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="58">
-        <v>580</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="61">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="H28" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="56">
-        <v>210111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="58">
-        <v>580</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="61">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H29" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="56">
-        <v>210111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="58">
-        <v>580</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="61">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="H30" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="56">
-        <v>210111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="58">
-        <v>580</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="61">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="H31" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="56">
-        <v>210111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="61">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="H32" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="56">
-        <v>210507</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="G33" s="61">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="H33" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="56">
-        <v>210507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="61">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="H34" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="56">
-        <v>210507</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="61">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="H35" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="56">
-        <v>210507</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="61">
-        <v>0.85</v>
-      </c>
-      <c r="H36" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="56">
-        <v>210507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="61">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="H37" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I37" s="56">
-        <v>210507</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="G38" s="61">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="H38" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="56">
-        <v>210528</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39" s="61">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="H39" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I39" s="56">
-        <v>210528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="61">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="H40" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="56">
-        <v>210528</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="61">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="H41" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="56">
-        <v>210528</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="61">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="H42" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I42" s="56">
-        <v>210528</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" s="61">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="H43" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="56">
-        <v>210528</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" s="61">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="H44" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" s="56">
-        <v>210622</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" s="61">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="H45" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I45" s="56">
-        <v>210622</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="57" t="s">
+      <c r="F60" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" s="57"/>
+      <c r="H60" s="62">
+        <v>1.2</v>
+      </c>
+      <c r="I60" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="J60" s="57">
+        <v>20201208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="61">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="H46" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I46" s="56">
-        <v>210622</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G47" s="61">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="H47" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I47" s="56">
-        <v>210622</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="61">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="H48" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I48" s="56">
-        <v>210622</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B49" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" s="61">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="H49" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I49" s="56">
-        <v>210622</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
+      <c r="C61" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="57"/>
-      <c r="G50" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I50" s="57">
-        <v>210416</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F51" s="57"/>
-      <c r="G51" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="H51" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I51" s="57">
-        <v>210416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F52" s="57"/>
-      <c r="G52" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="H52" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I52" s="57">
-        <v>210416</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" s="57"/>
-      <c r="G53" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="H53" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I53" s="57">
-        <v>210416</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="57"/>
-      <c r="G54" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="H54" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I54" s="57">
-        <v>210416</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F55" s="57"/>
-      <c r="G55" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I55" s="57">
-        <v>210416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F56" s="57"/>
-      <c r="G56" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="H56" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I56" s="57">
-        <v>210416</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I57" s="57">
-        <v>210416</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F58" s="57"/>
-      <c r="G58" s="62">
-        <v>0.93</v>
-      </c>
-      <c r="H58" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="I58" s="57">
+      <c r="G61" s="57"/>
+      <c r="H61" s="62">
+        <v>0.91</v>
+      </c>
+      <c r="I61" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="J61" s="57">
         <v>20201208</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F59" s="57"/>
-      <c r="G59" s="62">
-        <v>0.71</v>
-      </c>
-      <c r="H59" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="I59" s="57">
-        <v>20201208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F60" s="57"/>
-      <c r="G60" s="62">
-        <v>1.2</v>
-      </c>
-      <c r="H60" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="I60" s="57">
-        <v>20201208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F61" s="57"/>
-      <c r="G61" s="62">
-        <v>0.91</v>
-      </c>
-      <c r="H61" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="I61" s="57">
-        <v>20201208</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:J61">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
